--- a/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
+++ b/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>تاریخ</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>بررسی چند ابزار دیگر تعریف گزارش</t>
+  </si>
+  <si>
+    <t>تکمیل مستندات تحلیل نیازها</t>
+  </si>
+  <si>
+    <t>1390/10/23</t>
+  </si>
+  <si>
+    <t>نسخه ی صفر ERD</t>
+  </si>
+  <si>
+    <t>1390/10/24</t>
   </si>
 </sst>
 </file>
@@ -441,7 +453,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,14 +585,26 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -621,7 +645,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <f xml:space="preserve"> SUM(B2:B19)</f>
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1"/>
     </row>

--- a/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
+++ b/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>تاریخ</t>
   </si>
@@ -90,10 +90,16 @@
     <t>1390/10/23</t>
   </si>
   <si>
-    <t>نسخه ی صفر ERD</t>
-  </si>
-  <si>
     <t>1390/10/24</t>
+  </si>
+  <si>
+    <t>نسخه ی صفر ERD،  و تحلیل این نسخه به همراه محمد</t>
+  </si>
+  <si>
+    <t>1390/10/25</t>
+  </si>
+  <si>
+    <t>تخمین درصدی مولفه گزارش ساز و تهیه ی گزارش فعالیت های هفته ی گذشته</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,19 +603,25 @@
     </row>
     <row r="13" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="14" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -645,7 +657,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <f xml:space="preserve"> SUM(B2:B19)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1"/>
     </row>

--- a/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
+++ b/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>تاریخ</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>تخمین درصدی مولفه گزارش ساز و تهیه ی گزارش فعالیت های هفته ی گذشته</t>
+  </si>
+  <si>
+    <t>بررسی نظرات محمد و تهیه ی نسخه ی مخصوص مشتری تعریف نیازمندی بخش نمایش گزارش</t>
+  </si>
+  <si>
+    <t>1390/10/27</t>
+  </si>
+  <si>
+    <t>1390/10/26</t>
+  </si>
+  <si>
+    <t>تحلیل بخش تعیین فرمت و چاپ گزارش و تکمیل ERD</t>
+  </si>
+  <si>
+    <t>1390/10/28</t>
+  </si>
+  <si>
+    <t>جلسه با مهندس کشاورز به همراه محمد</t>
+  </si>
+  <si>
+    <t>تصحیح ERD و تهیه نسخه ی تقریبا نهایی</t>
   </si>
 </sst>
 </file>
@@ -458,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,24 +645,48 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -657,7 +702,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <f xml:space="preserve"> SUM(B2:B19)</f>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1"/>
     </row>

--- a/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
+++ b/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>تاریخ</t>
   </si>
@@ -121,13 +121,34 @@
   </si>
   <si>
     <t>تصحیح ERD و تهیه نسخه ی تقریبا نهایی</t>
+  </si>
+  <si>
+    <t>پیگیری قرارداد به همراه محمد در آموزش و پرورش</t>
+  </si>
+  <si>
+    <t>1390/11/1</t>
+  </si>
+  <si>
+    <t>1390/11/5</t>
+  </si>
+  <si>
+    <t>پیگیری قرارداد در آموزش و پرورش</t>
+  </si>
+  <si>
+    <t>جمع</t>
+  </si>
+  <si>
+    <t>شروع کد زدن در بخش builder</t>
+  </si>
+  <si>
+    <t>1390/11/13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +162,14 @@
       <name val="B Homa"/>
       <charset val="178"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="B Homa"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,12 +201,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +526,7 @@
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -501,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -512,7 +548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -523,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -534,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -545,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -556,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -567,7 +603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -578,7 +614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -589,7 +625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -600,7 +636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -611,7 +647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -622,7 +658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -633,7 +669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -644,7 +680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -654,8 +690,15 @@
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="3">
+        <f xml:space="preserve"> SUM(B2:B85)</f>
+        <v>59.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -694,17 +737,37 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B21" s="1">
-        <f xml:space="preserve"> SUM(B2:B19)</f>
-        <v>49</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
+++ b/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>تاریخ</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>1390/11/13</t>
+  </si>
+  <si>
+    <t>اتمام بخش category ها</t>
+  </si>
+  <si>
+    <t>1390/11/21</t>
+  </si>
+  <si>
+    <t>شروع و پیشرفت بخش گزارش ها</t>
+  </si>
+  <si>
+    <t>1390/11/22</t>
   </si>
 </sst>
 </file>
@@ -513,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +707,7 @@
       </c>
       <c r="K15" s="3">
         <f xml:space="preserve"> SUM(B2:B85)</f>
-        <v>59.75</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
@@ -767,6 +779,28 @@
       </c>
       <c r="C22" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
+++ b/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>تاریخ</t>
   </si>
@@ -154,6 +154,27 @@
   </si>
   <si>
     <t>1390/11/22</t>
+  </si>
+  <si>
+    <t>1390/12/2</t>
+  </si>
+  <si>
+    <t>کار روی صفحه طراحی گزارش</t>
+  </si>
+  <si>
+    <t>1390/11/30</t>
+  </si>
+  <si>
+    <t>صفحه ی لیست گزارش ها</t>
+  </si>
+  <si>
+    <t>1390/11/28</t>
+  </si>
+  <si>
+    <t>تکمیل صفحه ی لیست گزارش ها</t>
+  </si>
+  <si>
+    <t>1390/11/27</t>
   </si>
 </sst>
 </file>
@@ -525,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +728,7 @@
       </c>
       <c r="K15" s="3">
         <f xml:space="preserve"> SUM(B2:B85)</f>
-        <v>75.75</v>
+        <v>94.75</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
@@ -801,6 +822,50 @@
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
+++ b/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>تاریخ</t>
   </si>
@@ -175,6 +175,39 @@
   </si>
   <si>
     <t>1390/11/27</t>
+  </si>
+  <si>
+    <t>1391/02/08</t>
+  </si>
+  <si>
+    <t>چندین بار مراجعه به آموزش و پرورش برای پیگیری کارها</t>
+  </si>
+  <si>
+    <t>1391/02/09</t>
+  </si>
+  <si>
+    <t>مراجعه به آموزش و پرورش برای دریافت نسخه کپی قرارداد</t>
+  </si>
+  <si>
+    <t>1391/02/14</t>
+  </si>
+  <si>
+    <t>صفحه طراحی گزارش - جدول های گزارش</t>
+  </si>
+  <si>
+    <t>1391/02/13</t>
+  </si>
+  <si>
+    <t>1391/02/15</t>
+  </si>
+  <si>
+    <t>صفحه طراحی گزارش - ستون های گزارش</t>
+  </si>
+  <si>
+    <t>1391/02/18</t>
+  </si>
+  <si>
+    <t>1391/02/17</t>
   </si>
 </sst>
 </file>
@@ -546,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +761,7 @@
       </c>
       <c r="K15" s="3">
         <f xml:space="preserve"> SUM(B2:B85)</f>
-        <v>94.75</v>
+        <v>152.75</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
@@ -866,6 +899,83 @@
       </c>
       <c r="C28" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
+++ b/trunk/doc/Timesheet/Alireza-TimeSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>تاریخ</t>
   </si>
@@ -208,6 +208,66 @@
   </si>
   <si>
     <t>1391/02/17</t>
+  </si>
+  <si>
+    <t>1391/02/21</t>
+  </si>
+  <si>
+    <t>1391/02/22</t>
+  </si>
+  <si>
+    <t>صفحه طراحی گزارش - فیلترهای گزارش</t>
+  </si>
+  <si>
+    <t>1391/02/23</t>
+  </si>
+  <si>
+    <t>صفحه طراحی گزارش - فیلد محاسبه شده</t>
+  </si>
+  <si>
+    <t>1391/02/24</t>
+  </si>
+  <si>
+    <t>تغییرات کوچک در گریدها - رفع برخی باگ های طراحی گزارش</t>
+  </si>
+  <si>
+    <t>1391/02/26</t>
+  </si>
+  <si>
+    <t>1391/02/27</t>
+  </si>
+  <si>
+    <t>فیلتر پیوند</t>
+  </si>
+  <si>
+    <t>1391/02/28</t>
+  </si>
+  <si>
+    <t>مدل داده ی چارت</t>
+  </si>
+  <si>
+    <t>1391/02/29</t>
+  </si>
+  <si>
+    <t>1391/02/30</t>
+  </si>
+  <si>
+    <t>1391/02/31</t>
+  </si>
+  <si>
+    <t>جلسه با کشاورز به همراه محمد</t>
+  </si>
+  <si>
+    <t>1391/02/25</t>
+  </si>
+  <si>
+    <t>شروع کار چارت - جلسه در سورن به همراه محمد</t>
+  </si>
+  <si>
+    <t>جدا سازی فرم فرمول ساز - طراحی چارت - تلاش برای خرید سفته</t>
+  </si>
+  <si>
+    <t>طراحی چارت  - خروجی چارت - خرید سفته - انعقاد قرارداد در سورن</t>
   </si>
 </sst>
 </file>
@@ -579,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,8 +820,8 @@
         <v>39</v>
       </c>
       <c r="K15" s="3">
-        <f xml:space="preserve"> SUM(B2:B85)</f>
-        <v>152.75</v>
+        <f xml:space="preserve"> SUM(B2:B86)</f>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
@@ -976,6 +1036,127 @@
       </c>
       <c r="C35" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="1">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="1">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="1">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
